--- a/public/ExcelFile/I-Menu.xlsx
+++ b/public/ExcelFile/I-Menu.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Menu" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Informacion" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="141">
   <si>
     <t>Emoji</t>
   </si>
@@ -371,13 +372,76 @@
   </si>
   <si>
     <t>2023-10-15</t>
+  </si>
+  <si>
+    <t>Nombre de comercio</t>
+  </si>
+  <si>
+    <t>Barrio</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>Horarios</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>Tipo de comida</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Usuario de Google</t>
+  </si>
+  <si>
+    <t>Correo secundario</t>
+  </si>
+  <si>
+    <t>Mesas</t>
+  </si>
+  <si>
+    <t>Natural food</t>
+  </si>
+  <si>
+    <t>Barracas</t>
+  </si>
+  <si>
+    <t>Av Juramento 222</t>
+  </si>
+  <si>
+    <t>15 a 19</t>
+  </si>
+  <si>
+    <t>ejemplo@gmail.com</t>
+  </si>
+  <si>
+    <t>postres</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>JPerez@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -388,10 +452,12 @@
       <sz val="14.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -406,6 +472,15 @@
     <font>
       <color theme="1"/>
       <name val="Söhne"/>
+    </font>
+    <font>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF333333"/>
+      <name val="Catamaran"/>
     </font>
   </fonts>
   <fills count="6">
@@ -454,31 +529,51 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,6 +584,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -694,17 +793,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.63"/>
     <col customWidth="1" min="2" max="2" width="35.0"/>
     <col customWidth="1" min="3" max="3" width="25.13"/>
     <col customWidth="1" min="4" max="4" width="31.88"/>
     <col customWidth="1" min="5" max="5" width="47.75"/>
-    <col customWidth="1" min="6" max="6" width="11.25"/>
-    <col customWidth="1" min="7" max="7" width="8.25"/>
-    <col customWidth="1" min="8" max="8" width="6.63"/>
-    <col customWidth="1" min="9" max="9" width="7.38"/>
+    <col customWidth="1" min="6" max="6" width="12.38"/>
+    <col customWidth="1" min="7" max="7" width="14.0"/>
+    <col customWidth="1" min="8" max="8" width="11.5"/>
+    <col customWidth="1" min="9" max="9" width="12.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.75" customHeight="1">
@@ -739,7 +837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -771,7 +869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -803,7 +901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -835,7 +933,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5">
       <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
@@ -867,7 +965,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6">
       <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
@@ -899,7 +997,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7">
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
@@ -931,7 +1029,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8">
       <c r="A8" s="4" t="s">
         <v>46</v>
       </c>
@@ -963,7 +1061,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9">
       <c r="A9" s="4" t="s">
         <v>50</v>
       </c>
@@ -995,7 +1093,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10">
       <c r="A10" s="4" t="s">
         <v>55</v>
       </c>
@@ -1027,7 +1125,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11">
       <c r="A11" s="4" t="s">
         <v>60</v>
       </c>
@@ -1059,7 +1157,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12">
       <c r="A12" s="4" t="s">
         <v>66</v>
       </c>
@@ -1091,7 +1189,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13">
       <c r="A13" s="4" t="s">
         <v>72</v>
       </c>
@@ -1123,7 +1221,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14">
       <c r="A14" s="4" t="s">
         <v>78</v>
       </c>
@@ -1155,7 +1253,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15">
       <c r="A15" s="4" t="s">
         <v>84</v>
       </c>
@@ -1187,7 +1285,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16">
       <c r="A16" s="4" t="s">
         <v>89</v>
       </c>
@@ -1219,7 +1317,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17">
       <c r="A17" s="4" t="s">
         <v>94</v>
       </c>
@@ -1251,7 +1349,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18">
       <c r="A18" s="4" t="s">
         <v>99</v>
       </c>
@@ -1283,7 +1381,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19">
       <c r="A19" s="4" t="s">
         <v>103</v>
       </c>
@@ -1315,7 +1413,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20">
       <c r="A20" s="4" t="s">
         <v>109</v>
       </c>
@@ -1347,7 +1445,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21">
       <c r="A21" s="4" t="s">
         <v>115</v>
       </c>
@@ -1377,1151 +1475,255 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="4"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="4"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="4"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="4"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="4"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="4"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="4"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="4"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="4"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="4"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="4"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="4"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="4"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="4"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="4"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="4"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="4"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="4"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="4"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="4"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="4"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="4"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="4"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="4"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="4"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="4"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="4"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="4"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="4"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="4"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="4"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="4"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="4"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="4"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="4"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="4"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="4"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="4"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="4"/>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="4"/>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="4"/>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="4"/>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="4"/>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="4"/>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="4"/>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="4"/>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="4"/>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="4"/>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="4"/>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="4"/>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="4"/>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="4"/>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="4"/>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="4"/>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="4"/>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="4"/>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="4"/>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="4"/>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="4"/>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="4"/>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="4"/>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="4"/>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="4"/>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="4"/>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="4"/>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="4"/>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="4"/>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="4"/>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="4"/>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="4"/>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="4"/>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="4"/>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="4"/>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="4"/>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="4"/>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="4"/>
-    </row>
-    <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="4"/>
-    </row>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="22">
+      <c r="A22" s="11"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="11"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="11"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="11"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="11"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="11"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="11"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="11"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="11"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="11"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="11"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="11"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="11"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="11"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="11"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="11"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="11"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="11"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="11"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="11"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="11"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="11"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="11"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="11"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="11"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="11"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="11"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="11"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="11"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="11"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="11"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="11"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="11"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="11"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="11"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="11"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="11"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="11"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="11"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="11"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="11"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="11"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="11"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="11"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="11"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="11"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="11"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="11"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="11"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="11"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="11"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="11"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="11"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="11"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="11"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="11"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="11"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="11"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="11"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="11"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="11"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="11"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="11"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="11"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="11"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="11"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="11"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="11"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="11"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="11"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="11"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="11"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="11"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="11"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="11"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="11"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="11"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="11"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="11"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="11"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="11"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="11"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="11"/>
+    </row>
   </sheetData>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B21">
@@ -2533,4 +1735,102 @@
   </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="19.88"/>
+    <col customWidth="1" min="3" max="3" width="18.63"/>
+    <col customWidth="1" min="5" max="5" width="17.5"/>
+    <col customWidth="1" min="6" max="6" width="15.75"/>
+    <col customWidth="1" min="7" max="7" width="15.63"/>
+    <col customWidth="1" min="11" max="11" width="21.5"/>
+    <col customWidth="1" min="12" max="12" width="16.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1.45689789E8</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N2" s="5">
+        <v>10.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/public/ExcelFile/I-Menu.xlsx
+++ b/public/ExcelFile/I-Menu.xlsx
@@ -441,6 +441,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$ $]#,##0.00"/>
+  </numFmts>
   <fonts count="8">
     <font>
       <sz val="10.0"/>
@@ -452,12 +455,10 @@
       <sz val="14.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -476,7 +477,6 @@
     <font>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <color rgb="FF333333"/>
@@ -533,48 +533,34 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -793,8 +779,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="12.63"/>
     <col customWidth="1" min="2" max="2" width="35.0"/>
     <col customWidth="1" min="3" max="3" width="25.13"/>
     <col customWidth="1" min="4" max="4" width="31.88"/>
@@ -837,7 +824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -869,7 +856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -901,7 +888,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -933,7 +920,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
@@ -965,7 +952,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
@@ -997,7 +984,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
@@ -1029,7 +1016,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>46</v>
       </c>
@@ -1061,7 +1048,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>50</v>
       </c>
@@ -1093,7 +1080,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>55</v>
       </c>
@@ -1125,7 +1112,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>60</v>
       </c>
@@ -1157,7 +1144,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>66</v>
       </c>
@@ -1189,7 +1176,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>72</v>
       </c>
@@ -1221,7 +1208,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>78</v>
       </c>
@@ -1253,7 +1240,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>84</v>
       </c>
@@ -1285,7 +1272,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>89</v>
       </c>
@@ -1317,7 +1304,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>94</v>
       </c>
@@ -1349,7 +1336,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>99</v>
       </c>
@@ -1381,7 +1368,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>103</v>
       </c>
@@ -1413,7 +1400,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>109</v>
       </c>
@@ -1445,7 +1432,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>115</v>
       </c>
@@ -1461,7 +1448,9 @@
       <c r="E21" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F21" s="8"/>
+      <c r="F21" s="11">
+        <v>4554.0</v>
+      </c>
       <c r="G21" s="4">
         <v>10.0</v>
       </c>
@@ -1475,255 +1464,1151 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="11"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="11"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="11"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="11"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="11"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="11"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="11"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="11"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="11"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="11"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="11"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="11"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="11"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="11"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="11"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="11"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="11"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="11"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="11"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="11"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="11"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="11"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="11"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="11"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="11"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="11"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="11"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="11"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="11"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="11"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="11"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="11"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="11"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="11"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="11"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="11"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="11"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="11"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="11"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="11"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="11"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="11"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="11"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="11"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="11"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="11"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="11"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="11"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="11"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="11"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="11"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="11"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="11"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="11"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="11"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="11"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="11"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="11"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="11"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="11"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="11"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="11"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="11"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="11"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="11"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="11"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="11"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="11"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="11"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="11"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="11"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="11"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="11"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="11"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="11"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="11"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="11"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="11"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="11"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="11"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="11"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="11"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="11"/>
-    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="4"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="4"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="4"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="4"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="4"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="4"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="4"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="4"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="4"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="4"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="4"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="4"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="4"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="4"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="4"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="4"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="4"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="4"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="4"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="4"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="4"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="4"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="4"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="4"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="4"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="4"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="4"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="4"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="4"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="4"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="4"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="4"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="4"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="4"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="4"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="4"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="4"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="4"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="4"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="4"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="4"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="4"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="4"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="4"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="4"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="4"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="4"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="4"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="4"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="4"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="4"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="4"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="4"/>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="4"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="4"/>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="4"/>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="4"/>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="4"/>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="4"/>
+    </row>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B21">
@@ -1745,10 +2630,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="19.88"/>
+    <col customWidth="1" min="2" max="2" width="12.63"/>
     <col customWidth="1" min="3" max="3" width="18.63"/>
+    <col customWidth="1" min="4" max="4" width="12.63"/>
     <col customWidth="1" min="5" max="5" width="17.5"/>
     <col customWidth="1" min="6" max="6" width="15.75"/>
     <col customWidth="1" min="7" max="7" width="15.63"/>
@@ -1756,7 +2643,7 @@
     <col customWidth="1" min="12" max="12" width="16.38"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>120</v>
       </c>
@@ -1795,7 +2682,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>132</v>
       </c>
@@ -1830,6 +2717,1004 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="3" ht="15.75" customHeight="1"/>
+    <row r="4" ht="15.75" customHeight="1"/>
+    <row r="5" ht="15.75" customHeight="1"/>
+    <row r="6" ht="15.75" customHeight="1"/>
+    <row r="7" ht="15.75" customHeight="1"/>
+    <row r="8" ht="15.75" customHeight="1"/>
+    <row r="9" ht="15.75" customHeight="1"/>
+    <row r="10" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/public/ExcelFile/I-Menu.xlsx
+++ b/public/ExcelFile/I-Menu.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="138">
   <si>
     <t>Emoji</t>
   </si>
@@ -30,15 +30,6 @@
   </si>
   <si>
     <t>Precio</t>
-  </si>
-  <si>
-    <t>promocion</t>
-  </si>
-  <si>
-    <t>descuento</t>
-  </si>
-  <si>
-    <t>recargo</t>
   </si>
   <si>
     <t>validez</t>
@@ -529,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -554,9 +545,6 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
@@ -787,9 +775,6 @@
     <col customWidth="1" min="4" max="4" width="31.88"/>
     <col customWidth="1" min="5" max="5" width="47.75"/>
     <col customWidth="1" min="6" max="6" width="12.38"/>
-    <col customWidth="1" min="7" max="7" width="14.0"/>
-    <col customWidth="1" min="8" max="8" width="11.5"/>
-    <col customWidth="1" min="9" max="9" width="12.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.75" customHeight="1">
@@ -814,654 +799,465 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="F2" s="8">
         <v>2192.0</v>
       </c>
-      <c r="G2" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>15</v>
+      <c r="G2" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="F3" s="8">
         <v>2192.0</v>
       </c>
-      <c r="G3" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>21</v>
+      <c r="G3" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="F4" s="8">
         <v>3288.0</v>
       </c>
-      <c r="G4" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>23.0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>27</v>
+      <c r="G4" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="F5" s="8">
         <v>3288.0</v>
       </c>
-      <c r="G5" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>454.0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>33</v>
+      <c r="G5" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="F6" s="8">
         <v>3288.0</v>
       </c>
-      <c r="G6" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>34.0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>39</v>
+      <c r="G6" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="F7" s="8">
         <v>3288.0</v>
       </c>
-      <c r="G7" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>54.0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>22.0</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>45</v>
+      <c r="G7" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F8" s="8">
         <v>3288.0</v>
       </c>
-      <c r="G8" s="4">
-        <v>14.0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>65.0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>49</v>
+      <c r="G8" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="F9" s="8">
         <v>3288.0</v>
       </c>
-      <c r="G9" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>40.0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>54</v>
+      <c r="G9" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="F10" s="8">
         <v>3288.0</v>
       </c>
-      <c r="G10" s="4">
-        <v>17.0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>23.0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>59</v>
+      <c r="G10" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="F11" s="8">
         <v>3288.0</v>
       </c>
-      <c r="G11" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>21.0</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>65</v>
+      <c r="G11" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="F12" s="8">
         <v>3288.0</v>
       </c>
-      <c r="G12" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>71</v>
+      <c r="G12" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="F13" s="8">
         <v>3288.0</v>
       </c>
-      <c r="G13" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="H13" s="4">
-        <v>65.0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>77</v>
+      <c r="G13" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="F14" s="8">
         <v>3288.0</v>
       </c>
-      <c r="G14" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="H14" s="4">
-        <v>56.0</v>
-      </c>
-      <c r="I14" s="4">
-        <v>33.0</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>83</v>
+      <c r="G14" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="F15" s="8">
         <v>3288.0</v>
       </c>
-      <c r="G15" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="H15" s="4">
-        <v>23.0</v>
-      </c>
-      <c r="I15" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>88</v>
+      <c r="G15" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="F16" s="8">
         <v>3288.0</v>
       </c>
-      <c r="G16" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>45.0</v>
-      </c>
-      <c r="I16" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>93</v>
+      <c r="G16" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="F17" s="8">
         <v>3288.0</v>
       </c>
-      <c r="G17" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>32.0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>9.0</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>98</v>
+      <c r="G17" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F18" s="8">
         <v>3288.0</v>
       </c>
-      <c r="G18" s="4">
-        <v>43.0</v>
-      </c>
-      <c r="H18" s="4">
-        <v>54.0</v>
-      </c>
-      <c r="I18" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>102</v>
+      <c r="G18" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="E19" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="F19" s="8">
         <v>3288.0</v>
       </c>
-      <c r="G19" s="4">
-        <v>23.0</v>
-      </c>
-      <c r="H19" s="4">
-        <v>32.0</v>
-      </c>
-      <c r="I19" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>108</v>
+      <c r="G19" s="9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="E20" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="F20" s="8">
         <v>3288.0</v>
       </c>
-      <c r="G20" s="4">
-        <v>21.0</v>
-      </c>
-      <c r="H20" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="I20" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>114</v>
+      <c r="G20" s="9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="F21" s="8">
+        <v>4554.0</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" s="11">
-        <v>4554.0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="H21" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="I21" s="4">
-        <v>17.0</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -2644,74 +2440,74 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="K1" s="12" t="s">
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="B2" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="C2" s="5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="D2" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="F2" s="5">
         <v>1.45689789E8</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="N2" s="5">
         <v>10.0</v>

--- a/public/ExcelFile/I-Menu.xlsx
+++ b/public/ExcelFile/I-Menu.xlsx
@@ -12,42 +12,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="127">
   <si>
     <t>Emoji</t>
   </si>
   <si>
-    <t>Tipo de menu</t>
-  </si>
-  <si>
-    <t>Nombre de la categoria</t>
-  </si>
-  <si>
-    <t>Nombre de productos</t>
-  </si>
-  <si>
-    <t>descripcion</t>
-  </si>
-  <si>
-    <t>Precio</t>
-  </si>
-  <si>
-    <t>validez</t>
+    <t>Menu type</t>
+  </si>
+  <si>
+    <t>Name category</t>
+  </si>
+  <si>
+    <t>Name product</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Promotion</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Surcharge</t>
+  </si>
+  <si>
+    <t>Validity</t>
   </si>
   <si>
     <t>🍔</t>
   </si>
   <si>
-    <t>Menú vegano</t>
+    <t>Veggie menu</t>
   </si>
   <si>
     <t>Minutas</t>
   </si>
   <si>
-    <t>Hamburguesa Clásica</t>
-  </si>
-  <si>
-    <t>Hamburguesa de queso con bacon y salsa barbacoa.</t>
+    <t>Classic Burger</t>
+  </si>
+  <si>
+    <t>Cheeseburger with bacon and barbecue sauce.</t>
   </si>
   <si>
     <t>2023-09-26</t>
@@ -56,16 +65,16 @@
     <t>🍕</t>
   </si>
   <si>
-    <t>Otro</t>
+    <t>Other</t>
   </si>
   <si>
     <t>Pizza</t>
   </si>
   <si>
-    <t>Pizza Margherita</t>
-  </si>
-  <si>
-    <t>Ensalada César con pollo a la parrilla.</t>
+    <t>Margherita Pizza</t>
+  </si>
+  <si>
+    <t>Caesar salad with grilled chicken.</t>
   </si>
   <si>
     <t>2023-09-27</t>
@@ -74,16 +83,13 @@
     <t>🌯</t>
   </si>
   <si>
-    <t>libre</t>
-  </si>
-  <si>
     <t>Mexicana</t>
   </si>
   <si>
-    <t>Tacos de Pollo</t>
-  </si>
-  <si>
-    <t>Pizza Margarita con tomates frescos y albahaca.</t>
+    <t>Chicken tacos</t>
+  </si>
+  <si>
+    <t>Margherita pizza with fresh tomatoes and basil.</t>
   </si>
   <si>
     <t>2023-09-28</t>
@@ -92,16 +98,13 @@
     <t>🥗</t>
   </si>
   <si>
-    <t>Menú sin gluten</t>
-  </si>
-  <si>
     <t>Ensaladas</t>
   </si>
   <si>
-    <t>Ensalada César</t>
-  </si>
-  <si>
-    <t>Sushi variado con sashimi y makis.</t>
+    <t>Caesar salad</t>
+  </si>
+  <si>
+    <t>Assorted sushi with sashimi and makis.</t>
   </si>
   <si>
     <t>2023-09-29</t>
@@ -110,16 +113,13 @@
     <t>🍝</t>
   </si>
   <si>
-    <t>Menú sin soja</t>
-  </si>
-  <si>
     <t>Pastas</t>
   </si>
   <si>
-    <t>Spaghetti Carbonara</t>
-  </si>
-  <si>
-    <t>Tacos de carnitas con cebolla y cilantro.</t>
+    <t>Carbonara spaghetti</t>
+  </si>
+  <si>
+    <t>Carnitas tacos with onion and cilantro.</t>
   </si>
   <si>
     <t>2023-09-30</t>
@@ -128,16 +128,16 @@
     <t>🍗</t>
   </si>
   <si>
-    <t>Menú bajo en grasas</t>
+    <t>vegan menu</t>
   </si>
   <si>
     <t>Asiatica</t>
   </si>
   <si>
-    <t>Sushi Variado</t>
-  </si>
-  <si>
-    <t>Pasta al pesto con piñones y queso parmesano.</t>
+    <t>Assorted Sushi</t>
+  </si>
+  <si>
+    <t>Pesto pasta with pine nuts and parmesan cheese.</t>
   </si>
   <si>
     <t>2023-10-01</t>
@@ -146,10 +146,10 @@
     <t>🍟</t>
   </si>
   <si>
-    <t>Burrito de Pollo</t>
-  </si>
-  <si>
-    <t>Sopa de tomate casera con croutons.</t>
+    <t>Chicken Burrito</t>
+  </si>
+  <si>
+    <t>Homemade tomato soup with croutons.</t>
   </si>
   <si>
     <t>2023-10-02</t>
@@ -158,13 +158,10 @@
     <t>🍳</t>
   </si>
   <si>
-    <t>Menú vegetariano</t>
-  </si>
-  <si>
-    <t>Curry de Cordero</t>
-  </si>
-  <si>
-    <t>Ternera a la parrilla con chimichurri.</t>
+    <t>Lamb Curry</t>
+  </si>
+  <si>
+    <t>Grilled beef with chimichurri.</t>
   </si>
   <si>
     <t>2023-10-03</t>
@@ -173,13 +170,13 @@
     <t>🥖</t>
   </si>
   <si>
-    <t>Menú sin mariscos</t>
-  </si>
-  <si>
-    <t>Sushi Vegano</t>
-  </si>
-  <si>
-    <t>Rollitos de primavera con salsa agridulce.</t>
+    <t>Gluten free menu</t>
+  </si>
+  <si>
+    <t>Vegan Sushi</t>
+  </si>
+  <si>
+    <t>Spring rolls with sweet and sour sauce.</t>
   </si>
   <si>
     <t>2023-10-04</t>
@@ -188,16 +185,13 @@
     <t>🧀</t>
   </si>
   <si>
-    <t>Menú sin frutos secos</t>
-  </si>
-  <si>
     <t>Sandwiches</t>
   </si>
   <si>
-    <t>Sándwich de Pavo</t>
-  </si>
-  <si>
-    <t>Burrito de pollo con guacamole y crema agria.</t>
+    <t>Turkey Sandwich</t>
+  </si>
+  <si>
+    <t>Chicken burrito with guacamole and sour cream.</t>
   </si>
   <si>
     <t>2023-10-05</t>
@@ -206,16 +200,13 @@
     <t>🍤</t>
   </si>
   <si>
-    <t>Menú kosher</t>
-  </si>
-  <si>
     <t>Carnes</t>
   </si>
   <si>
-    <t>Churrasco Brasileño</t>
-  </si>
-  <si>
-    <t>Pescado a la plancha con verduras asadas.</t>
+    <t>Brazilian Steak</t>
+  </si>
+  <si>
+    <t>Grilled fish with roasted vegetables.</t>
   </si>
   <si>
     <t>2023-10-06</t>
@@ -224,16 +215,13 @@
     <t>🍱</t>
   </si>
   <si>
-    <t>Menú orgánico</t>
-  </si>
-  <si>
     <t>Mediterranea</t>
   </si>
   <si>
-    <t>Paella Vegetariana</t>
-  </si>
-  <si>
-    <t>Pollo al curry con arroz basmati.</t>
+    <t>Vegetarian paella</t>
+  </si>
+  <si>
+    <t>Chicken curry with basmati rice.</t>
   </si>
   <si>
     <t>2023-10-07</t>
@@ -242,16 +230,13 @@
     <t>🍯</t>
   </si>
   <si>
-    <t>Menú sin transgénicos</t>
-  </si>
-  <si>
     <t>Sopas</t>
   </si>
   <si>
-    <t>Sopa de Lentejas</t>
-  </si>
-  <si>
-    <t>Tarta de manzana con helado de vainilla.</t>
+    <t>Lentil soup</t>
+  </si>
+  <si>
+    <t>Apple pie with vanilla ice cream.</t>
   </si>
   <si>
     <t>2023-10-08</t>
@@ -260,13 +245,10 @@
     <t>🧁</t>
   </si>
   <si>
-    <t>Menú sin carne roja</t>
-  </si>
-  <si>
-    <t>Arroz Frito con Pollo</t>
-  </si>
-  <si>
-    <t>Tiramisú italiano con café y cacao.</t>
+    <t>Fried Rice with Chicken</t>
+  </si>
+  <si>
+    <t>Italian tiramisu with coffee and cocoa.</t>
   </si>
   <si>
     <t>2023-10-09</t>
@@ -275,13 +257,10 @@
     <t>🍇</t>
   </si>
   <si>
-    <t>celíaco</t>
-  </si>
-  <si>
-    <t>Hamburguesa Vegana</t>
-  </si>
-  <si>
-    <t>Pimientos rellenos de carne y arroz.</t>
+    <t>Vegan Burger</t>
+  </si>
+  <si>
+    <t>Peppers stuffed with meat and rice.</t>
   </si>
   <si>
     <t>2023-10-10</t>
@@ -290,13 +269,10 @@
     <t>🌭</t>
   </si>
   <si>
-    <t>diabético</t>
-  </si>
-  <si>
-    <t>Papas Fritas</t>
-  </si>
-  <si>
-    <t>Sándwich de pavo con aguacate y espinacas.</t>
+    <t>French fries</t>
+  </si>
+  <si>
+    <t>Turkey sandwich with avocado and spinach.</t>
   </si>
   <si>
     <t>2023-10-11</t>
@@ -305,10 +281,10 @@
     <t>🥪</t>
   </si>
   <si>
-    <t>Pollo a la Parrilla</t>
-  </si>
-  <si>
-    <t>Tofu salteado con vegetales frescos.</t>
+    <t>Grilled chicken</t>
+  </si>
+  <si>
+    <t>Stir-fried tofu with fresh vegetables.</t>
   </si>
   <si>
     <t>2023-10-12</t>
@@ -317,16 +293,13 @@
     <t>🍙</t>
   </si>
   <si>
-    <t>Menú sin lactosa</t>
-  </si>
-  <si>
     <t>Mariscos</t>
   </si>
   <si>
-    <t>Camarones al Ajillo</t>
-  </si>
-  <si>
-    <t>Langosta a la parrilla con mantequilla de ajo.</t>
+    <t>Garlic Shrimp</t>
+  </si>
+  <si>
+    <t>Grilled lobster with garlic butter.</t>
   </si>
   <si>
     <t>2023-10-13</t>
@@ -335,16 +308,13 @@
     <t>🍅</t>
   </si>
   <si>
-    <t>Menú paleo*</t>
-  </si>
-  <si>
     <t>Postres</t>
   </si>
   <si>
-    <t>Donas de Chocolate</t>
-  </si>
-  <si>
-    <t>Crepe de chocolate con fresas y nata.</t>
+    <t>Chocolate donuts</t>
+  </si>
+  <si>
+    <t>Chocolate crepe with strawberries and cream.</t>
   </si>
   <si>
     <t>2023-10-14</t>
@@ -353,55 +323,52 @@
     <t>🍣</t>
   </si>
   <si>
-    <t>Menú cetogénico (keto)</t>
-  </si>
-  <si>
-    <t>Helado de Vainilla</t>
-  </si>
-  <si>
-    <t>Batido de frutas frescas con yogur.</t>
+    <t xml:space="preserve">Vanilla ice cream </t>
+  </si>
+  <si>
+    <t>Fresh fruit smoothie with yogurt.</t>
   </si>
   <si>
     <t>2023-10-15</t>
   </si>
   <si>
-    <t>Nombre de comercio</t>
-  </si>
-  <si>
-    <t>Barrio</t>
-  </si>
-  <si>
-    <t>Direccion</t>
-  </si>
-  <si>
-    <t>Horarios</t>
+    <t>Commerce Name</t>
+  </si>
+  <si>
+    <t>Neighborhood</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Work schedule</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>Telefono</t>
-  </si>
-  <si>
-    <t>Tipo de comida</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Apellido</t>
-  </si>
-  <si>
-    <t>Usuario de Google</t>
-  </si>
-  <si>
-    <t>Correo secundario</t>
-  </si>
-  <si>
-    <t>Mesas</t>
-  </si>
-  <si>
-    <t>Natural food</t>
+    <t>Phono</t>
+  </si>
+  <si>
+    <t>Type of food</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Google user</t>
+  </si>
+  <si>
+    <t>Secondary email</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>comida rica</t>
   </si>
   <si>
     <t>Barracas</t>
@@ -413,7 +380,7 @@
     <t>15 a 19</t>
   </si>
   <si>
-    <t>ejemplo@gmail.com</t>
+    <t>@gmail.com</t>
   </si>
   <si>
     <t>postres</t>
@@ -520,12 +487,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -775,6 +745,9 @@
     <col customWidth="1" min="4" max="4" width="31.88"/>
     <col customWidth="1" min="5" max="5" width="47.75"/>
     <col customWidth="1" min="6" max="6" width="12.38"/>
+    <col customWidth="1" min="7" max="7" width="14.0"/>
+    <col customWidth="1" min="8" max="8" width="11.5"/>
+    <col customWidth="1" min="9" max="9" width="12.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.75" customHeight="1">
@@ -784,7 +757,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -793,721 +766,910 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8">
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="9">
+        <v>50.0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="9">
         <v>2192.0</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G3" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="9">
+        <v>3288.0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="9">
+        <v>3288.0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="9">
+        <v>3288.0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="9">
+        <v>3288.0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="9">
+        <v>3288.0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="9">
+        <v>3288.0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="9">
+        <v>3288.0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="9">
+        <v>3288.0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="9">
+        <v>3288.0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="9">
+        <v>3288.0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="9">
+        <v>3288.0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="9">
+        <v>3288.0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="D16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="9">
+        <v>3288.0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="8">
-        <v>2192.0</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="C17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="9">
         <v>3288.0</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="G17" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="9">
         <v>3288.0</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="G18" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="9">
         <v>3288.0</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="G19" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="9">
         <v>3288.0</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="8">
-        <v>3288.0</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="8">
-        <v>3288.0</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="8">
-        <v>3288.0</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="8">
-        <v>3288.0</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="8">
-        <v>3288.0</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="8">
-        <v>3288.0</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3288.0</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="8">
-        <v>3288.0</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="8">
-        <v>3288.0</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="8">
-        <v>3288.0</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="G20" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F18" s="8">
-        <v>3288.0</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="D21" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E21" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="8">
-        <v>3288.0</v>
-      </c>
-      <c r="G19" s="9" t="s">
+      <c r="F21" s="9">
+        <v>4554.0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J21" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="8">
-        <v>3288.0</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F21" s="8">
-        <v>4554.0</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="4"/>
+      <c r="A22" s="5"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="4"/>
+      <c r="A23" s="5"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="4"/>
+      <c r="A24" s="5"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="4"/>
+      <c r="A25" s="5"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="4"/>
+      <c r="A26" s="5"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="4"/>
+      <c r="A27" s="5"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="4"/>
+      <c r="A28" s="5"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="4"/>
+      <c r="A29" s="5"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="4"/>
+      <c r="A30" s="5"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="4"/>
+      <c r="A31" s="5"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="4"/>
+      <c r="A32" s="5"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="4"/>
+      <c r="A33" s="5"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="4"/>
+      <c r="A34" s="5"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="4"/>
+      <c r="A35" s="5"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="4"/>
+      <c r="A36" s="5"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="4"/>
+      <c r="A37" s="5"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="4"/>
+      <c r="A38" s="5"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="4"/>
+      <c r="A39" s="5"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="4"/>
+      <c r="A40" s="5"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="4"/>
+      <c r="A41" s="5"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="4"/>
+      <c r="A42" s="5"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="4"/>
+      <c r="A43" s="5"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="4"/>
+      <c r="A44" s="5"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="4"/>
+      <c r="A45" s="5"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="4"/>
+      <c r="A46" s="5"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="4"/>
+      <c r="A47" s="5"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="4"/>
+      <c r="A48" s="5"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="4"/>
+      <c r="A49" s="5"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="4"/>
+      <c r="A50" s="5"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="4"/>
+      <c r="A51" s="5"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="4"/>
+      <c r="A52" s="5"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="4"/>
+      <c r="A53" s="5"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="4"/>
+      <c r="A54" s="5"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="4"/>
+      <c r="A55" s="5"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="4"/>
+      <c r="A56" s="5"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="4"/>
+      <c r="A57" s="5"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="4"/>
+      <c r="A58" s="5"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="4"/>
+      <c r="A59" s="5"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="4"/>
+      <c r="A60" s="5"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="4"/>
+      <c r="A61" s="5"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="4"/>
+      <c r="A62" s="5"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="4"/>
+      <c r="A63" s="5"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="4"/>
+      <c r="A64" s="5"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="4"/>
+      <c r="A65" s="5"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="4"/>
+      <c r="A66" s="5"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="4"/>
+      <c r="A67" s="5"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="4"/>
+      <c r="A68" s="5"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="4"/>
+      <c r="A69" s="5"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="4"/>
+      <c r="A70" s="5"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="4"/>
+      <c r="A71" s="5"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="4"/>
+      <c r="A72" s="5"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="4"/>
+      <c r="A73" s="5"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="4"/>
+      <c r="A74" s="5"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="4"/>
+      <c r="A75" s="5"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="4"/>
+      <c r="A76" s="5"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="4"/>
+      <c r="A77" s="5"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="4"/>
+      <c r="A78" s="5"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="4"/>
+      <c r="A79" s="5"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="4"/>
+      <c r="A80" s="5"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="4"/>
+      <c r="A81" s="5"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="4"/>
+      <c r="A82" s="5"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="4"/>
+      <c r="A83" s="5"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="4"/>
+      <c r="A84" s="5"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="4"/>
+      <c r="A85" s="5"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="4"/>
+      <c r="A86" s="5"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="4"/>
+      <c r="A87" s="5"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="4"/>
+      <c r="A88" s="5"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="4"/>
+      <c r="A89" s="5"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="4"/>
+      <c r="A90" s="5"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="4"/>
+      <c r="A91" s="5"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="4"/>
+      <c r="A92" s="5"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="4"/>
+      <c r="A93" s="5"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="4"/>
+      <c r="A94" s="5"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="4"/>
+      <c r="A95" s="5"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="4"/>
+      <c r="A96" s="5"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="4"/>
+      <c r="A97" s="5"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="4"/>
+      <c r="A98" s="5"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="4"/>
+      <c r="A99" s="5"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="4"/>
+      <c r="A100" s="5"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="4"/>
+      <c r="A101" s="5"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="4"/>
+      <c r="A102" s="5"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="4"/>
+      <c r="A103" s="5"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="4"/>
+      <c r="A104" s="5"/>
     </row>
     <row r="105" ht="15.75" customHeight="1"/>
     <row r="106" ht="15.75" customHeight="1"/>
@@ -2407,11 +2569,11 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B21">
-      <formula1>"libre,Menú vegetariano,Menú vegano,Otro,Menú sin gluten,Menú sin lactosa,Menú sin frutos secos,Menú sin mariscos,Menú sin soja,Menú sin huevo,Menú sin carne roja,Menú sin azúcar añadido,Menú bajo en grasas,Menú sin sal,Menú paleo*,Menú cetogénico (keto),M"&amp;"enú sin alérgenos,Menú halal,Menú kosher,Menú sin transgénicos,Menú orgánico,Menú de comida rápida saludable,celíaco,diabético"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A21">
       <formula1>"🍔,🌭,🌮,🌯,🍕,🍖,🍗,🍞,🍟,🍲,🍳,🍿,🥐,🥓,🥖,🥗,🥘,🥙,🥚,🥞,🥣,🥨,🥩,🥪,🥫,🥯,🧀,🧂,🧆,🧇,🧈,🍘,🍙,🍚,🍛,🍜,🍝,🍠,🍡,🍢,🍣,🍤,🍥,🍱,🥟,🥠,🥡,🥮,🍅,🍇,🍈,🍉,🍊,🍋,🍌,🍍,🍎,🍏,🍐,🍑,🍒,🍓,🥝,🥥,🥭,🦀,🦐,🦑,🦞,🦪,🍦,🍧,🍨,🍩,🍪,🍫,🍬,🍭,🍮,🍯,🍰,🎂,🥧,🧁,🍷,"&amp;"🍸,🍹,🍺,🍻,🍾,🥂,🥃,🥛,🥤,🧃,🧉,🧊,☕,🍴,🍽,🔪,🥄,🥢"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B21">
+      <formula1>"free,Veggie menu,vegan menu,Other,Gluten free menu,Lactose-free menu,Menu without nuts,Menu without seafood,Soy-free menu,Eggless menu,Menu without red meat,Menu without added sugar,Low fat menu,Menu without salt,Paleo menu*,Ketogenic menu (keto),Allergen"&amp;"-free menu,Halal menu,kosher menu,GMO-free menu,Organic menu,Healthy fast food menu,celiac,diabetic"</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
@@ -2440,76 +2602,76 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="11" t="s">
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="B2" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="C2" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="D2" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="E2" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="F2" s="6">
+        <v>1.45689789E8</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="11" t="s">
+      <c r="I2" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J2" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K2" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1.45689789E8</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="N2" s="5">
+      <c r="N2" s="6">
         <v>10.0</v>
       </c>
     </row>

--- a/public/ExcelFile/I-Menu.xlsx
+++ b/public/ExcelFile/I-Menu.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Emoji</t>
   </si>
@@ -60,276 +60,6 @@
   </si>
   <si>
     <t>2023-09-26</t>
-  </si>
-  <si>
-    <t>🍕</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Pizza</t>
-  </si>
-  <si>
-    <t>Margherita Pizza</t>
-  </si>
-  <si>
-    <t>Caesar salad with grilled chicken.</t>
-  </si>
-  <si>
-    <t>2023-09-27</t>
-  </si>
-  <si>
-    <t>🌯</t>
-  </si>
-  <si>
-    <t>Mexicana</t>
-  </si>
-  <si>
-    <t>Chicken tacos</t>
-  </si>
-  <si>
-    <t>Margherita pizza with fresh tomatoes and basil.</t>
-  </si>
-  <si>
-    <t>2023-09-28</t>
-  </si>
-  <si>
-    <t>🥗</t>
-  </si>
-  <si>
-    <t>Ensaladas</t>
-  </si>
-  <si>
-    <t>Caesar salad</t>
-  </si>
-  <si>
-    <t>Assorted sushi with sashimi and makis.</t>
-  </si>
-  <si>
-    <t>2023-09-29</t>
-  </si>
-  <si>
-    <t>🍝</t>
-  </si>
-  <si>
-    <t>Pastas</t>
-  </si>
-  <si>
-    <t>Carbonara spaghetti</t>
-  </si>
-  <si>
-    <t>Carnitas tacos with onion and cilantro.</t>
-  </si>
-  <si>
-    <t>2023-09-30</t>
-  </si>
-  <si>
-    <t>🍗</t>
-  </si>
-  <si>
-    <t>vegan menu</t>
-  </si>
-  <si>
-    <t>Asiatica</t>
-  </si>
-  <si>
-    <t>Assorted Sushi</t>
-  </si>
-  <si>
-    <t>Pesto pasta with pine nuts and parmesan cheese.</t>
-  </si>
-  <si>
-    <t>2023-10-01</t>
-  </si>
-  <si>
-    <t>🍟</t>
-  </si>
-  <si>
-    <t>Chicken Burrito</t>
-  </si>
-  <si>
-    <t>Homemade tomato soup with croutons.</t>
-  </si>
-  <si>
-    <t>2023-10-02</t>
-  </si>
-  <si>
-    <t>🍳</t>
-  </si>
-  <si>
-    <t>Lamb Curry</t>
-  </si>
-  <si>
-    <t>Grilled beef with chimichurri.</t>
-  </si>
-  <si>
-    <t>2023-10-03</t>
-  </si>
-  <si>
-    <t>🥖</t>
-  </si>
-  <si>
-    <t>Gluten free menu</t>
-  </si>
-  <si>
-    <t>Vegan Sushi</t>
-  </si>
-  <si>
-    <t>Spring rolls with sweet and sour sauce.</t>
-  </si>
-  <si>
-    <t>2023-10-04</t>
-  </si>
-  <si>
-    <t>🧀</t>
-  </si>
-  <si>
-    <t>Sandwiches</t>
-  </si>
-  <si>
-    <t>Turkey Sandwich</t>
-  </si>
-  <si>
-    <t>Chicken burrito with guacamole and sour cream.</t>
-  </si>
-  <si>
-    <t>2023-10-05</t>
-  </si>
-  <si>
-    <t>🍤</t>
-  </si>
-  <si>
-    <t>Carnes</t>
-  </si>
-  <si>
-    <t>Brazilian Steak</t>
-  </si>
-  <si>
-    <t>Grilled fish with roasted vegetables.</t>
-  </si>
-  <si>
-    <t>2023-10-06</t>
-  </si>
-  <si>
-    <t>🍱</t>
-  </si>
-  <si>
-    <t>Mediterranea</t>
-  </si>
-  <si>
-    <t>Vegetarian paella</t>
-  </si>
-  <si>
-    <t>Chicken curry with basmati rice.</t>
-  </si>
-  <si>
-    <t>2023-10-07</t>
-  </si>
-  <si>
-    <t>🍯</t>
-  </si>
-  <si>
-    <t>Sopas</t>
-  </si>
-  <si>
-    <t>Lentil soup</t>
-  </si>
-  <si>
-    <t>Apple pie with vanilla ice cream.</t>
-  </si>
-  <si>
-    <t>2023-10-08</t>
-  </si>
-  <si>
-    <t>🧁</t>
-  </si>
-  <si>
-    <t>Fried Rice with Chicken</t>
-  </si>
-  <si>
-    <t>Italian tiramisu with coffee and cocoa.</t>
-  </si>
-  <si>
-    <t>2023-10-09</t>
-  </si>
-  <si>
-    <t>🍇</t>
-  </si>
-  <si>
-    <t>Vegan Burger</t>
-  </si>
-  <si>
-    <t>Peppers stuffed with meat and rice.</t>
-  </si>
-  <si>
-    <t>2023-10-10</t>
-  </si>
-  <si>
-    <t>🌭</t>
-  </si>
-  <si>
-    <t>French fries</t>
-  </si>
-  <si>
-    <t>Turkey sandwich with avocado and spinach.</t>
-  </si>
-  <si>
-    <t>2023-10-11</t>
-  </si>
-  <si>
-    <t>🥪</t>
-  </si>
-  <si>
-    <t>Grilled chicken</t>
-  </si>
-  <si>
-    <t>Stir-fried tofu with fresh vegetables.</t>
-  </si>
-  <si>
-    <t>2023-10-12</t>
-  </si>
-  <si>
-    <t>🍙</t>
-  </si>
-  <si>
-    <t>Mariscos</t>
-  </si>
-  <si>
-    <t>Garlic Shrimp</t>
-  </si>
-  <si>
-    <t>Grilled lobster with garlic butter.</t>
-  </si>
-  <si>
-    <t>2023-10-13</t>
-  </si>
-  <si>
-    <t>🍅</t>
-  </si>
-  <si>
-    <t>Postres</t>
-  </si>
-  <si>
-    <t>Chocolate donuts</t>
-  </si>
-  <si>
-    <t>Chocolate crepe with strawberries and cream.</t>
-  </si>
-  <si>
-    <t>2023-10-14</t>
-  </si>
-  <si>
-    <t>🍣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanilla ice cream </t>
-  </si>
-  <si>
-    <t>Fresh fruit smoothie with yogurt.</t>
-  </si>
-  <si>
-    <t>2023-10-15</t>
   </si>
   <si>
     <t>Commerce Name</t>
@@ -430,7 +160,8 @@
     </font>
     <font>
       <color theme="1"/>
-      <name val="Söhne"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color rgb="FFFFFFFF"/>
@@ -477,48 +208,53 @@
     <border/>
     <border>
       <left style="thin">
-        <color rgb="FFD9D9E3"/>
+        <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FFD9D9E3"/>
+        <color rgb="FF000000"/>
       </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="5" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -757,7 +493,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -766,911 +502,321 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>50.0</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>0.0</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>0.0</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>0.0</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="9">
-        <v>2192.0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="A3" s="10"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="9">
-        <v>3288.0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="A4" s="10"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="9">
-        <v>3288.0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="A5" s="10"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="9">
-        <v>3288.0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>36</v>
-      </c>
+      <c r="A6" s="10"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="9">
-        <v>3288.0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>42</v>
-      </c>
+      <c r="A7" s="10"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="9">
-        <v>3288.0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>46</v>
-      </c>
+      <c r="A8" s="10"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="9">
-        <v>3288.0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>50</v>
-      </c>
+      <c r="A9" s="10"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="9">
-        <v>3288.0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>55</v>
-      </c>
+      <c r="A10" s="10"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="9">
-        <v>3288.0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>60</v>
-      </c>
+      <c r="A11" s="10"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="9">
-        <v>3288.0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>65</v>
-      </c>
+      <c r="A12" s="10"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="9">
-        <v>3288.0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="A13" s="10"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="9">
-        <v>3288.0</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>75</v>
-      </c>
+      <c r="A14" s="10"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="9">
-        <v>3288.0</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>79</v>
-      </c>
+      <c r="A15" s="10"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="9">
-        <v>3288.0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="I16" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>83</v>
-      </c>
+      <c r="A16" s="10"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="9">
-        <v>3288.0</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="I17" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>87</v>
-      </c>
+      <c r="A17" s="10"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="9">
-        <v>3288.0</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H18" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="I18" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>91</v>
-      </c>
+      <c r="A18" s="10"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="9">
-        <v>3288.0</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="I19" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>96</v>
-      </c>
+      <c r="A19" s="10"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="9">
-        <v>3288.0</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="I20" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>101</v>
-      </c>
+      <c r="A20" s="10"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="9">
-        <v>4554.0</v>
-      </c>
-      <c r="G21" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H21" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="I21" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>105</v>
-      </c>
+      <c r="A21" s="10"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="5"/>
+      <c r="A22" s="10"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="5"/>
+      <c r="A23" s="10"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="5"/>
+      <c r="A24" s="10"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="5"/>
+      <c r="A25" s="10"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="5"/>
+      <c r="A26" s="10"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="5"/>
+      <c r="A27" s="10"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="5"/>
+      <c r="A28" s="10"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="5"/>
+      <c r="A29" s="10"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="5"/>
+      <c r="A30" s="10"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="5"/>
+      <c r="A31" s="10"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="5"/>
+      <c r="A32" s="10"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="5"/>
+      <c r="A33" s="10"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="5"/>
+      <c r="A34" s="10"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="5"/>
+      <c r="A35" s="10"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="5"/>
+      <c r="A36" s="10"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="5"/>
+      <c r="A37" s="10"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="5"/>
+      <c r="A38" s="10"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="5"/>
+      <c r="A39" s="10"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="5"/>
+      <c r="A40" s="10"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="5"/>
+      <c r="A41" s="10"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="5"/>
+      <c r="A42" s="10"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="5"/>
+      <c r="A43" s="10"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="5"/>
+      <c r="A44" s="10"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="5"/>
+      <c r="A45" s="10"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="5"/>
+      <c r="A46" s="10"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="5"/>
+      <c r="A47" s="10"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="5"/>
+      <c r="A48" s="10"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="5"/>
+      <c r="A49" s="10"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="5"/>
+      <c r="A50" s="10"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="5"/>
+      <c r="A51" s="10"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="5"/>
+      <c r="A52" s="10"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="5"/>
+      <c r="A53" s="10"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="5"/>
+      <c r="A54" s="10"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="5"/>
+      <c r="A55" s="10"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="5"/>
+      <c r="A56" s="10"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="5"/>
+      <c r="A57" s="10"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="5"/>
+      <c r="A58" s="10"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="5"/>
+      <c r="A59" s="10"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="5"/>
+      <c r="A60" s="10"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="5"/>
+      <c r="A61" s="10"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="5"/>
+      <c r="A62" s="10"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="5"/>
+      <c r="A63" s="10"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="5"/>
+      <c r="A64" s="10"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="5"/>
+      <c r="A65" s="10"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="5"/>
+      <c r="A66" s="10"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="5"/>
+      <c r="A67" s="10"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="5"/>
+      <c r="A68" s="10"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="5"/>
+      <c r="A69" s="10"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="5"/>
+      <c r="A70" s="10"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="5"/>
+      <c r="A71" s="10"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="5"/>
+      <c r="A72" s="10"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="5"/>
+      <c r="A73" s="10"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="5"/>
+      <c r="A74" s="10"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="5"/>
+      <c r="A75" s="10"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="5"/>
+      <c r="A76" s="10"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="5"/>
+      <c r="A77" s="10"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="5"/>
+      <c r="A78" s="10"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="5"/>
+      <c r="A79" s="10"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="5"/>
+      <c r="A80" s="10"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="5"/>
+      <c r="A81" s="10"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="5"/>
+      <c r="A82" s="10"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="5"/>
+      <c r="A83" s="10"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="5"/>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="5"/>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="5"/>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="5"/>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="5"/>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="5"/>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="5"/>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="5"/>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="5"/>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="5"/>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="5"/>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="5"/>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="5"/>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="5"/>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="5"/>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="5"/>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="5"/>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="5"/>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="5"/>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="5"/>
-    </row>
-    <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="5"/>
-    </row>
+      <c r="A84" s="10"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
     <row r="105" ht="15.75" customHeight="1"/>
     <row r="106" ht="15.75" customHeight="1"/>
     <row r="107" ht="15.75" customHeight="1"/>
@@ -2547,32 +1693,12 @@
     <row r="978" ht="15.75" customHeight="1"/>
     <row r="979" ht="15.75" customHeight="1"/>
     <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A21">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2">
       <formula1>"🍔,🌭,🌮,🌯,🍕,🍖,🍗,🍞,🍟,🍲,🍳,🍿,🥐,🥓,🥖,🥗,🥘,🥙,🥚,🥞,🥣,🥨,🥩,🥪,🥫,🥯,🧀,🧂,🧆,🧇,🧈,🍘,🍙,🍚,🍛,🍜,🍝,🍠,🍡,🍢,🍣,🍤,🍥,🍱,🥟,🥠,🥡,🥮,🍅,🍇,🍈,🍉,🍊,🍋,🍌,🍍,🍎,🍏,🍐,🍑,🍒,🍓,🥝,🥥,🥭,🦀,🦐,🦑,🦞,🦪,🍦,🍧,🍨,🍩,🍪,🍫,🍬,🍭,🍮,🍯,🍰,🎂,🥧,🧁,🍷,"&amp;"🍸,🍹,🍺,🍻,🍾,🥂,🥃,🥛,🥤,🧃,🧉,🧊,☕,🍴,🍽,🔪,🥄,🥢"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B21">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2">
       <formula1>"free,Veggie menu,vegan menu,Other,Gluten free menu,Lactose-free menu,Menu without nuts,Menu without seafood,Soy-free menu,Eggless menu,Menu without red meat,Menu without added sugar,Low fat menu,Menu without salt,Paleo menu*,Ketogenic menu (keto),Allergen"&amp;"-free menu,Halal menu,kosher menu,GMO-free menu,Organic menu,Healthy fast food menu,celiac,diabetic"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2603,75 +1729,76 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="H1" s="13"/>
       <c r="I1" s="12" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="A2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="5">
         <v>1.45689789E8</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="N2" s="6">
+      <c r="G2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="11"/>
+      <c r="N2" s="5">
         <v>10.0</v>
       </c>
     </row>
